--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plg-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plg-Itgb1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>2.079179617132</v>
+        <v>1.369418292493333</v>
       </c>
       <c r="R2">
-        <v>18.712616554188</v>
+        <v>12.32476463244</v>
       </c>
       <c r="S2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="T2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
         <v>1.804467783189333</v>
@@ -632,10 +632,10 @@
         <v>16.240210048704</v>
       </c>
       <c r="S3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="T3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
         <v>2.522963885717333</v>
@@ -694,10 +694,10 @@
         <v>22.706674971456</v>
       </c>
       <c r="S4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="T4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
     </row>
   </sheetData>
